--- a/Berita Acara DAS Knitting/24 November 2023 (SSST).xlsx
+++ b/Berita Acara DAS Knitting/24 November 2023 (SSST).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Berita Acara Vendor\Berita Acara DAS Knitting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B125861-89D8-4632-8804-05839B5CD232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929F2AA3-9426-4184-9335-84D5DD2EC645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2C2612F0-2320-4D21-8B39-B4089E0BF1C1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{2C2612F0-2320-4D21-8B39-B4089E0BF1C1}"/>
   </bookViews>
   <sheets>
     <sheet name="SPK-1123-ALL-112" sheetId="1" r:id="rId1"/>
@@ -697,6 +697,29 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -740,32 +763,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipertaut" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -846,7 +846,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1148,7 +1148,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1236,10 +1236,10 @@
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
-      <c r="G9" s="49">
+      <c r="G9" s="57">
         <v>45254</v>
       </c>
-      <c r="H9" s="49"/>
+      <c r="H9" s="57"/>
       <c r="I9" s="10"/>
       <c r="J9" s="11"/>
     </row>
@@ -1282,36 +1282,36 @@
       <c r="A14" s="15"/>
     </row>
     <row r="15" spans="1:10" ht="12" x14ac:dyDescent="0.2">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="58" t="s">
+      <c r="D15" s="61"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="60" t="s">
+      <c r="G15" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="61"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="65" t="s">
+      <c r="H15" s="69"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="51" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="12" x14ac:dyDescent="0.2">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="59"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="67"/>
       <c r="G16" s="41" t="s">
         <v>13</v>
       </c>
@@ -1321,7 +1321,7 @@
       <c r="I16" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="66"/>
+      <c r="J16" s="52"/>
     </row>
     <row r="17" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A17" s="34" t="s">
@@ -1342,11 +1342,11 @@
         <v>23</v>
       </c>
       <c r="H17" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" s="36">
         <f>SUM(G17:H17)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J17" s="39" t="s">
         <v>29</v>
@@ -1378,23 +1378,23 @@
       <c r="J18" s="40"/>
     </row>
     <row r="19" spans="1:10" ht="12" x14ac:dyDescent="0.2">
-      <c r="A19" s="67"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="69"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="55"/>
       <c r="G19" s="35">
         <f>SUM(G17:G18)</f>
         <v>74</v>
       </c>
       <c r="H19" s="42">
         <f>SUM(H17:H18)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="35">
         <f>SUM(I17:I18)</f>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J19" s="43"/>
     </row>
@@ -1408,12 +1408,12 @@
       <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:10" ht="12" x14ac:dyDescent="0.2">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="56" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="12" x14ac:dyDescent="0.2">
-      <c r="A23" s="70"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
       <c r="D23" s="20"/>
@@ -1484,45 +1484,51 @@
       <c r="A31" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="49">
+      <c r="F31" s="57">
         <f>G9</f>
         <v>45254</v>
       </c>
-      <c r="G31" s="49"/>
-      <c r="I31" s="49">
+      <c r="G31" s="57"/>
+      <c r="I31" s="57">
         <v>45257</v>
       </c>
-      <c r="J31" s="49"/>
+      <c r="J31" s="57"/>
     </row>
     <row r="32" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
     </row>
     <row r="33" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
     </row>
     <row r="34" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I34" s="63"/>
-      <c r="J34" s="63"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
     </row>
     <row r="36" spans="1:10" ht="12" x14ac:dyDescent="0.2">
-      <c r="J36" s="64"/>
+      <c r="J36" s="50"/>
     </row>
     <row r="37" spans="1:10" ht="12" x14ac:dyDescent="0.2">
-      <c r="J37" s="64"/>
+      <c r="J37" s="50"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="A9:D13 G11:J11 G13:J13 G9:J9 F31:G31 I31:J34" name="Penerimaan_1"/>
   </protectedRanges>
   <mergeCells count="15">
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:I15"/>
     <mergeCell ref="I33:J33"/>
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="J36:J37"/>
@@ -1532,12 +1538,6 @@
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:I15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="13" scale="75" fitToHeight="0" orientation="landscape" r:id="rId1"/>
